--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Saa1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Saa1-Cd36.xlsx
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Saa1</t>
+  </si>
+  <si>
+    <t>Cd36</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Saa1</t>
-  </si>
-  <si>
-    <t>Cd36</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,10 +543,10 @@
         <v>0.126158</v>
       </c>
       <c r="I2">
-        <v>0.7158347471331543</v>
+        <v>0.9501423428580035</v>
       </c>
       <c r="J2">
-        <v>0.7158347471331544</v>
+        <v>0.9501423428580037</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>519.8509316666667</v>
+        <v>509.3923236666667</v>
       </c>
       <c r="N2">
-        <v>1559.552795</v>
+        <v>1528.176971</v>
       </c>
       <c r="O2">
-        <v>0.7998736652701117</v>
+        <v>0.831019558191033</v>
       </c>
       <c r="P2">
-        <v>0.7998736652701117</v>
+        <v>0.8310195581910331</v>
       </c>
       <c r="Q2">
-        <v>21.86111794573445</v>
+        <v>21.42130558971311</v>
       </c>
       <c r="R2">
-        <v>196.75006151161</v>
+        <v>192.791750307418</v>
       </c>
       <c r="S2">
-        <v>0.5725773629170997</v>
+        <v>0.789586869980451</v>
       </c>
       <c r="T2">
-        <v>0.5725773629170998</v>
+        <v>0.7895868699804514</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.126158</v>
       </c>
       <c r="I3">
-        <v>0.7158347471331543</v>
+        <v>0.9501423428580035</v>
       </c>
       <c r="J3">
-        <v>0.7158347471331544</v>
+        <v>0.9501423428580037</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>1.259691</v>
       </c>
       <c r="N3">
-        <v>3.779072999999999</v>
+        <v>3.779073</v>
       </c>
       <c r="O3">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="P3">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="Q3">
         <v>0.05297336572599999</v>
       </c>
       <c r="R3">
-        <v>0.4767602915339999</v>
+        <v>0.476760291534</v>
       </c>
       <c r="S3">
-        <v>0.001387456493649009</v>
+        <v>0.001952592191953423</v>
       </c>
       <c r="T3">
-        <v>0.00138745649364901</v>
+        <v>0.001952592191953424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.126158</v>
       </c>
       <c r="I4">
-        <v>0.7158347471331543</v>
+        <v>0.9501423428580035</v>
       </c>
       <c r="J4">
-        <v>0.7158347471331544</v>
+        <v>0.9501423428580037</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.17443800000001</v>
+        <v>22.92703233333333</v>
       </c>
       <c r="N4">
-        <v>159.523314</v>
+        <v>68.781097</v>
       </c>
       <c r="O4">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339736</v>
       </c>
       <c r="P4">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339737</v>
       </c>
       <c r="Q4">
-        <v>2.236126916401334</v>
+        <v>0.9641428483695554</v>
       </c>
       <c r="R4">
-        <v>20.125142247612</v>
+        <v>8.677285635325999</v>
       </c>
       <c r="S4">
-        <v>0.05856771168424373</v>
+        <v>0.03553819493727457</v>
       </c>
       <c r="T4">
-        <v>0.05856771168424374</v>
+        <v>0.03553819493727459</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>0.126158</v>
       </c>
       <c r="I5">
-        <v>0.7158347471331543</v>
+        <v>0.9501423428580035</v>
       </c>
       <c r="J5">
-        <v>0.7158347471331544</v>
+        <v>0.9501423428580037</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>75.63123766666666</v>
+        <v>79.39367866666667</v>
       </c>
       <c r="N5">
-        <v>226.893713</v>
+        <v>238.181036</v>
       </c>
       <c r="O5">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="P5">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="Q5">
-        <v>3.180495227183777</v>
+        <v>3.338715904409778</v>
       </c>
       <c r="R5">
-        <v>28.624457044654</v>
+        <v>30.048443139688</v>
       </c>
       <c r="S5">
-        <v>0.08330221603816193</v>
+        <v>0.1230646857483243</v>
       </c>
       <c r="T5">
-        <v>0.08330221603816194</v>
+        <v>0.1230646857483244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01669366666666667</v>
+        <v>0.002206666666666667</v>
       </c>
       <c r="H6">
-        <v>0.050081</v>
+        <v>0.00662</v>
       </c>
       <c r="I6">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199641</v>
       </c>
       <c r="J6">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199642</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>519.8509316666667</v>
+        <v>509.3923236666667</v>
       </c>
       <c r="N6">
-        <v>1559.552795</v>
+        <v>1528.176971</v>
       </c>
       <c r="O6">
-        <v>0.7998736652701117</v>
+        <v>0.831019558191033</v>
       </c>
       <c r="P6">
-        <v>0.7998736652701117</v>
+        <v>0.8310195581910331</v>
       </c>
       <c r="Q6">
-        <v>8.678218169599445</v>
+        <v>1.124059060891111</v>
       </c>
       <c r="R6">
-        <v>78.10396352639501</v>
+        <v>10.11653154802</v>
       </c>
       <c r="S6">
-        <v>0.2272963023530119</v>
+        <v>0.04143268821058186</v>
       </c>
       <c r="T6">
-        <v>0.2272963023530119</v>
+        <v>0.04143268821058187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01669366666666667</v>
+        <v>0.002206666666666667</v>
       </c>
       <c r="H7">
-        <v>0.050081</v>
+        <v>0.00662</v>
       </c>
       <c r="I7">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199641</v>
       </c>
       <c r="J7">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199642</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>1.259691</v>
       </c>
       <c r="N7">
-        <v>3.779072999999999</v>
+        <v>3.779073</v>
       </c>
       <c r="O7">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="P7">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="Q7">
-        <v>0.021028861657</v>
+        <v>0.00277971814</v>
       </c>
       <c r="R7">
-        <v>0.189259754913</v>
+        <v>0.02501746326</v>
       </c>
       <c r="S7">
-        <v>0.0005507792502927761</v>
+        <v>0.0001024600921917886</v>
       </c>
       <c r="T7">
-        <v>0.0005507792502927762</v>
+        <v>0.0001024600921917886</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.01669366666666667</v>
+        <v>0.002206666666666667</v>
       </c>
       <c r="H8">
-        <v>0.050081</v>
+        <v>0.00662</v>
       </c>
       <c r="I8">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199641</v>
       </c>
       <c r="J8">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.17443800000001</v>
+        <v>22.92703233333333</v>
       </c>
       <c r="N8">
-        <v>159.523314</v>
+        <v>68.781097</v>
       </c>
       <c r="O8">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339736</v>
       </c>
       <c r="P8">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339737</v>
       </c>
       <c r="Q8">
-        <v>0.8876763431593334</v>
+        <v>0.05059231801555555</v>
       </c>
       <c r="R8">
-        <v>7.989087088434001</v>
+        <v>0.45533086214</v>
       </c>
       <c r="S8">
-        <v>0.02324965177680853</v>
+        <v>0.00186482704612278</v>
       </c>
       <c r="T8">
-        <v>0.02324965177680853</v>
+        <v>0.001864827046122781</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,25 +962,25 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.01669366666666667</v>
+        <v>0.002206666666666667</v>
       </c>
       <c r="H9">
-        <v>0.050081</v>
+        <v>0.00662</v>
       </c>
       <c r="I9">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199641</v>
       </c>
       <c r="J9">
-        <v>0.2841652528668456</v>
+        <v>0.04985765714199642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.63123766666666</v>
+        <v>79.39367866666667</v>
       </c>
       <c r="N9">
-        <v>226.893713</v>
+        <v>238.181036</v>
       </c>
       <c r="O9">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="P9">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="Q9">
-        <v>1.262562671194778</v>
+        <v>0.1751953842577778</v>
       </c>
       <c r="R9">
-        <v>11.363064040753</v>
+        <v>1.57675845832</v>
       </c>
       <c r="S9">
-        <v>0.03306851948673242</v>
+        <v>0.006457681793099979</v>
       </c>
       <c r="T9">
-        <v>0.03306851948673242</v>
+        <v>0.00645768179309998</v>
       </c>
     </row>
   </sheetData>
